--- a/completedReports.xlsx
+++ b/completedReports.xlsx
@@ -14,33 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Καθαριότητα</t>
+  </si>
+  <si>
+    <t>ΑΓΚΩΝΑ</t>
+  </si>
+  <si>
+    <t>ΚΑΛΑΜΟΣ</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+  </si>
+  <si>
+    <t>Ολοκληρώθηκε</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Άλλο</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΖΙ</t>
+  </si>
+  <si>
+    <t>ΑΓ.ΑΠΟΣΤΟΛΟΙ</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Ύδρευση</t>
   </si>
   <si>
-    <t>ΒΑΡΥΚΟ</t>
+    <t>ΑΓΙΟΣ ΚΩΝ/ΝΟΣ</t>
   </si>
   <si>
     <t>ΩΡΩΠΟΣ</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>vj</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
   <si>
     <t>sspsk</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΛΙΑ</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
     <t>2019-12-22</t>
   </si>
   <si>
-    <t>Υπο αναλαβή</t>
+    <t>sotiris</t>
+  </si>
+  <si>
+    <t>6947552549</t>
   </si>
 </sst>
 </file>
@@ -372,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,16 +449,109 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
